--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_98.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_98.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_47</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08258928571428571</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Db:7', 'Db:7', 'Gb']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(10.01, 14.41)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.0, 22.44)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_8</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(32.52, 47.4)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(59.68, 65.78)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:23.400000', '0:00:31.320000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:39.580000', '0:00:46.780000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1985815602836879</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2214285714285714</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'E:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(58.990317, 63.680748)]</t>
+          <t>[['A', 'E', 'B:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(253.215, 258.972)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:17.680000', '0:01:21.940000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:44.354195', '0:01:53.665396')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_160</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1231527093596059</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj'], ['A#:maj/D', 'F:maj/C', 'C:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
+          <t>[['Eb:7', 'Ab:maj', 'Ab/7'], ['Db:maj', 'Ab/3', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(138.8, 144.46)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:14.380000', '0:01:24.380000'), ('0:01:11.560000', '0:01:15.440000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:54.072000', '0:00:59.053000'), ('0:00:13.159000', '0:00:16.555000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2385964912280702</v>
-      </c>
-      <c r="D6" t="inlineStr">
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(118.44, 122.0)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.634761, 19.597664)]</t>
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06648351648351648</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_77</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3428571428571429</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C', 'G']]</t>
+          <t>[['E', 'A', 'G:maj/9', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(54.4, 62.9)]</t>
+          <t>[['B', 'E', 'D:maj/2', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(58.265237, 68.830317)]</t>
+          <t>[('0:00:50.498163', '0:01:07.437120')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:27.877925', '0:00:52.293707')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>jaah_7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03263106320431161</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['Eb', 'F:min7', 'Bb:7'], ['F:min7', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
+          <t>[['G:maj/D', 'A:min7/C', 'D:7'], ['A:min7/C', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:10.700000', '0:00:14.240000'), ('0:00:08.350000', '0:00:10.700000'), ('0:00:08.940000', '0:00:11.880000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:05.900000', '0:01:10.060000'), ('0:01:06.800000', '0:01:13.560000'), ('0:00:06.440000', '0:00:12.420000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'C', 'C', 'C']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(84.787426, 87.427993)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(23.67, 26.74)]</t>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(49.28, 64.98)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(26.04, 59.82)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:19.360000', '0:00:23.020000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08947368421052632</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C'], ['C', 'G', 'F'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['A', 'E', 'D'], ['E', 'A', 'E']]</t>
+          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(136.604739, 139.228594), (5.017256, 9.231677), (4.155032, 7.525011)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(31.840929, 37.216349), (27.452358, 31.840929), (32.920657, 39.410634)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:00:31', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:33.100000', '0:01:51.540000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1166666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'E/5', 'E']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(18.47, 20.04)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(61.881201, 65.886643)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.46, 13.5)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.66, 38.43)]</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1885964912280702</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.459543, 6.357029)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(11.26, 13.88)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_67</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_31</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06335851648351648</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['G:min7', 'C:7', 'F']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C'], ['D:min7', 'G:7', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.18, 12.7), (22.68, 26.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(6.04, 11.44), (4.24, 9.62)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
